--- a/prep/ECO/eco_trend_mse2019.xlsx
+++ b/prep/ECO/eco_trend_mse2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tendencia" sheetId="1" r:id="rId1"/>
@@ -1170,11 +1170,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="444615264"/>
-        <c:axId val="444617504"/>
+        <c:axId val="413093040"/>
+        <c:axId val="413086320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444615264"/>
+        <c:axId val="413093040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1214,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444617504"/>
+        <c:crossAx val="413086320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1222,7 +1222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444617504"/>
+        <c:axId val="413086320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1271,7 +1271,7 @@
             <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444615264"/>
+        <c:crossAx val="413093040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2192,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -3189,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3211,7 +3211,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="38">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C2" s="39">
         <f>Tendencia!C37</f>
@@ -3223,7 +3223,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="38">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C3" s="39">
         <f>Tendencia!C38</f>
